--- a/public/res/leaderboards/Final/Beginner.xlsx
+++ b/public/res/leaderboards/Final/Beginner.xlsx
@@ -486,29 +486,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yunlin Pan</t>
+          <t>Vance Lam</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>-30000</v>
       </c>
       <c r="D2" t="n">
-        <v>50000</v>
+        <v>-30000</v>
       </c>
       <c r="E2" t="n">
-        <v>30000</v>
+        <v>140000</v>
       </c>
       <c r="F2" t="n">
-        <v>104100</v>
+        <v>-30000</v>
       </c>
       <c r="G2" t="n">
-        <v>31900</v>
+        <v>-30000</v>
       </c>
       <c r="H2" t="n">
-        <v>-30000</v>
+        <v>214200</v>
       </c>
       <c r="I2" t="n">
-        <v>216000</v>
+        <v>294200</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Haopeng Jiang</t>
+          <t>Hoang Tu Vu</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -527,19 +527,19 @@
         <v>-30000</v>
       </c>
       <c r="E3" t="n">
-        <v>70400</v>
+        <v>47200</v>
       </c>
       <c r="F3" t="n">
-        <v>37000</v>
+        <v>35200</v>
       </c>
       <c r="G3" t="n">
-        <v>135000</v>
+        <v>84600</v>
       </c>
       <c r="H3" t="n">
-        <v>-30000</v>
+        <v>60000</v>
       </c>
       <c r="I3" t="n">
-        <v>212400</v>
+        <v>227000</v>
       </c>
     </row>
     <row r="4">
@@ -548,29 +548,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hoang Tu Vu</t>
+          <t>Yunlin Pan</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>-30000</v>
       </c>
       <c r="D4" t="n">
-        <v>-30000</v>
+        <v>50000</v>
       </c>
       <c r="E4" t="n">
-        <v>47200</v>
+        <v>30000</v>
       </c>
       <c r="F4" t="n">
-        <v>35200</v>
+        <v>104100</v>
       </c>
       <c r="G4" t="n">
-        <v>84600</v>
+        <v>31900</v>
       </c>
       <c r="H4" t="n">
         <v>-30000</v>
       </c>
       <c r="I4" t="n">
-        <v>137000</v>
+        <v>216000</v>
       </c>
     </row>
     <row r="5">
@@ -579,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">William Cheung (Moved To Beginner) </t>
+          <t>Haopeng Jiang</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -589,19 +589,19 @@
         <v>-30000</v>
       </c>
       <c r="E5" t="n">
-        <v>39300</v>
+        <v>70400</v>
       </c>
       <c r="F5" t="n">
-        <v>150000</v>
+        <v>37000</v>
       </c>
       <c r="G5" t="n">
-        <v>-30000</v>
+        <v>135000</v>
       </c>
       <c r="H5" t="n">
         <v>-30000</v>
       </c>
       <c r="I5" t="n">
-        <v>129300</v>
+        <v>212400</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Techin</t>
+          <t>William Cheung</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -620,19 +620,19 @@
         <v>-30000</v>
       </c>
       <c r="E6" t="n">
-        <v>-30000</v>
+        <v>39300</v>
       </c>
       <c r="F6" t="n">
-        <v>-30000</v>
+        <v>150000</v>
       </c>
       <c r="G6" t="n">
-        <v>210000</v>
+        <v>-30000</v>
       </c>
       <c r="H6" t="n">
         <v>-30000</v>
       </c>
       <c r="I6" t="n">
-        <v>120000</v>
+        <v>129300</v>
       </c>
     </row>
     <row r="7">
@@ -641,29 +641,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Zeren Shen</t>
+          <t>Techin</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>115200</v>
+        <v>-30000</v>
       </c>
       <c r="D7" t="n">
         <v>-30000</v>
       </c>
       <c r="E7" t="n">
-        <v>51400</v>
+        <v>-30000</v>
       </c>
       <c r="F7" t="n">
         <v>-30000</v>
       </c>
       <c r="G7" t="n">
-        <v>-30000</v>
+        <v>210000</v>
       </c>
       <c r="H7" t="n">
         <v>-30000</v>
       </c>
       <c r="I7" t="n">
-        <v>106600</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="8">
@@ -672,20 +672,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dillon Chen</t>
+          <t>Zeren Shen</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-30000</v>
+        <v>115200</v>
       </c>
       <c r="D8" t="n">
-        <v>73800</v>
+        <v>-30000</v>
       </c>
       <c r="E8" t="n">
-        <v>-30000</v>
+        <v>51400</v>
       </c>
       <c r="F8" t="n">
-        <v>86000</v>
+        <v>-30000</v>
       </c>
       <c r="G8" t="n">
         <v>-30000</v>
@@ -694,7 +694,7 @@
         <v>-30000</v>
       </c>
       <c r="I8" t="n">
-        <v>99800</v>
+        <v>106600</v>
       </c>
     </row>
     <row r="9">
@@ -703,29 +703,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jeremy Annal</t>
+          <t>Dillon Chen</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>-30000</v>
       </c>
       <c r="D9" t="n">
-        <v>-30000</v>
+        <v>73800</v>
       </c>
       <c r="E9" t="n">
         <v>-30000</v>
       </c>
       <c r="F9" t="n">
-        <v>-30000</v>
+        <v>86000</v>
       </c>
       <c r="G9" t="n">
-        <v>172300</v>
+        <v>-30000</v>
       </c>
       <c r="H9" t="n">
         <v>-30000</v>
       </c>
       <c r="I9" t="n">
-        <v>82300</v>
+        <v>99800</v>
       </c>
     </row>
     <row r="10">
@@ -734,29 +734,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Xuanyu Chen</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-30000</v>
+        <v>2500</v>
       </c>
       <c r="D10" t="n">
-        <v>28300</v>
+        <v>84700</v>
       </c>
       <c r="E10" t="n">
-        <v>54000</v>
+        <v>-30000</v>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>-30000</v>
       </c>
       <c r="G10" t="n">
-        <v>-12500</v>
+        <v>-30000</v>
       </c>
       <c r="H10" t="n">
-        <v>-30000</v>
+        <v>39800</v>
       </c>
       <c r="I10" t="n">
-        <v>74800</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="11">
@@ -765,29 +765,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hao Duong</t>
+          <t>Jeremy Annal</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>18900</v>
+        <v>-30000</v>
       </c>
       <c r="D11" t="n">
         <v>-30000</v>
       </c>
       <c r="E11" t="n">
-        <v>-12000</v>
+        <v>-30000</v>
       </c>
       <c r="F11" t="n">
         <v>-30000</v>
       </c>
       <c r="G11" t="n">
-        <v>86200</v>
+        <v>172300</v>
       </c>
       <c r="H11" t="n">
         <v>-30000</v>
       </c>
       <c r="I11" t="n">
-        <v>63100</v>
+        <v>82300</v>
       </c>
     </row>
     <row r="12">
@@ -796,29 +796,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vance Lam</t>
+          <t>Xuanyu Chen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>-30000</v>
       </c>
       <c r="D12" t="n">
-        <v>-30000</v>
+        <v>28300</v>
       </c>
       <c r="E12" t="n">
-        <v>140000</v>
+        <v>54000</v>
       </c>
       <c r="F12" t="n">
-        <v>-30000</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="n">
-        <v>-30000</v>
+        <v>-12500</v>
       </c>
       <c r="H12" t="n">
         <v>-30000</v>
       </c>
       <c r="I12" t="n">
-        <v>50000</v>
+        <v>74800</v>
       </c>
     </row>
     <row r="13">
@@ -827,29 +827,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kai Ze Lim</t>
+          <t>Hao Duong</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>42900</v>
+        <v>18900</v>
       </c>
       <c r="D13" t="n">
-        <v>57400</v>
+        <v>-30000</v>
       </c>
       <c r="E13" t="n">
-        <v>-30000</v>
+        <v>-12000</v>
       </c>
       <c r="F13" t="n">
         <v>-30000</v>
       </c>
       <c r="G13" t="n">
-        <v>-30000</v>
+        <v>86200</v>
       </c>
       <c r="H13" t="n">
         <v>-30000</v>
       </c>
       <c r="I13" t="n">
-        <v>40300</v>
+        <v>63100</v>
       </c>
     </row>
     <row r="14">
@@ -858,20 +858,20 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Yong Jun Loo</t>
+          <t>Kai Ze Lim</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>67400</v>
+        <v>42900</v>
       </c>
       <c r="D14" t="n">
-        <v>-30000</v>
+        <v>57400</v>
       </c>
       <c r="E14" t="n">
         <v>-30000</v>
       </c>
       <c r="F14" t="n">
-        <v>30100</v>
+        <v>-30000</v>
       </c>
       <c r="G14" t="n">
         <v>-30000</v>
@@ -880,7 +880,7 @@
         <v>-30000</v>
       </c>
       <c r="I14" t="n">
-        <v>37500</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="15">
@@ -889,20 +889,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t>Yong Jun Loo</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2500</v>
+        <v>67400</v>
       </c>
       <c r="D15" t="n">
-        <v>84700</v>
+        <v>-30000</v>
       </c>
       <c r="E15" t="n">
         <v>-30000</v>
       </c>
       <c r="F15" t="n">
-        <v>-30000</v>
+        <v>30100</v>
       </c>
       <c r="G15" t="n">
         <v>-30000</v>
@@ -911,7 +911,7 @@
         <v>-30000</v>
       </c>
       <c r="I15" t="n">
-        <v>27200</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="16">
@@ -951,29 +951,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kevin Yu</t>
+          <t>Justin Qiang</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-30000</v>
+        <v>8300</v>
       </c>
       <c r="D17" t="n">
-        <v>30900</v>
+        <v>-30000</v>
       </c>
       <c r="E17" t="n">
         <v>-30000</v>
       </c>
       <c r="F17" t="n">
-        <v>38000</v>
+        <v>-30000</v>
       </c>
       <c r="G17" t="n">
         <v>-30000</v>
       </c>
       <c r="H17" t="n">
-        <v>-30000</v>
+        <v>62000</v>
       </c>
       <c r="I17" t="n">
-        <v>8900</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="18">
@@ -982,20 +982,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashwin Seshadari </t>
+          <t>Kevin Yu</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-20900</v>
+        <v>-30000</v>
       </c>
       <c r="D18" t="n">
-        <v>-30000</v>
+        <v>30900</v>
       </c>
       <c r="E18" t="n">
-        <v>2600</v>
+        <v>-30000</v>
       </c>
       <c r="F18" t="n">
-        <v>56400</v>
+        <v>38000</v>
       </c>
       <c r="G18" t="n">
         <v>-30000</v>
@@ -1004,7 +1004,7 @@
         <v>-30000</v>
       </c>
       <c r="I18" t="n">
-        <v>8100</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="19">
@@ -1013,20 +1013,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dillon Chen Yi Ken</t>
+          <t xml:space="preserve">Ashwin Seshadari </t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-30000</v>
+        <v>-20900</v>
       </c>
       <c r="D19" t="n">
         <v>-30000</v>
       </c>
       <c r="E19" t="n">
-        <v>-30000</v>
+        <v>2600</v>
       </c>
       <c r="F19" t="n">
-        <v>92700</v>
+        <v>56400</v>
       </c>
       <c r="G19" t="n">
         <v>-30000</v>
@@ -1035,7 +1035,7 @@
         <v>-30000</v>
       </c>
       <c r="I19" t="n">
-        <v>2700</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="20">
@@ -1044,20 +1044,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sanjay Ravichandran </t>
+          <t>Dillon Chen Yi Ken</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>-30000</v>
       </c>
       <c r="D20" t="n">
-        <v>86000</v>
+        <v>-30000</v>
       </c>
       <c r="E20" t="n">
         <v>-30000</v>
       </c>
       <c r="F20" t="n">
-        <v>-30000</v>
+        <v>92700</v>
       </c>
       <c r="G20" t="n">
         <v>-30000</v>
@@ -1066,7 +1066,7 @@
         <v>-30000</v>
       </c>
       <c r="I20" t="n">
-        <v>-4000</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="21">
@@ -1075,14 +1075,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Amery Caleb Atinon</t>
+          <t xml:space="preserve">Sanjay Ravichandran </t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5000</v>
+        <v>-30000</v>
       </c>
       <c r="D21" t="n">
-        <v>41800</v>
+        <v>86000</v>
       </c>
       <c r="E21" t="n">
         <v>-30000</v>
@@ -1097,7 +1097,7 @@
         <v>-30000</v>
       </c>
       <c r="I21" t="n">
-        <v>-13200</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="22">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Akshat Jain</t>
+          <t>Amery Caleb Atinon</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-30000</v>
+        <v>5000</v>
       </c>
       <c r="D22" t="n">
-        <v>-30000</v>
+        <v>41800</v>
       </c>
       <c r="E22" t="n">
         <v>-30000</v>
       </c>
       <c r="F22" t="n">
-        <v>71000</v>
+        <v>-30000</v>
       </c>
       <c r="G22" t="n">
         <v>-30000</v>
@@ -1128,7 +1128,7 @@
         <v>-30000</v>
       </c>
       <c r="I22" t="n">
-        <v>-19000</v>
+        <v>-13200</v>
       </c>
     </row>
     <row r="23">
@@ -1137,20 +1137,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Yucheng Chien</t>
+          <t>Akshat Jain</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>-30000</v>
       </c>
       <c r="D23" t="n">
-        <v>63300</v>
+        <v>-30000</v>
       </c>
       <c r="E23" t="n">
         <v>-30000</v>
       </c>
       <c r="F23" t="n">
-        <v>-30000</v>
+        <v>71000</v>
       </c>
       <c r="G23" t="n">
         <v>-30000</v>
@@ -1159,7 +1159,7 @@
         <v>-30000</v>
       </c>
       <c r="I23" t="n">
-        <v>-26700</v>
+        <v>-19000</v>
       </c>
     </row>
     <row r="24">
@@ -1168,14 +1168,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanmay Shewale </t>
+          <t>Yucheng Chien</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>54400</v>
+        <v>-30000</v>
       </c>
       <c r="D24" t="n">
-        <v>-30000</v>
+        <v>63300</v>
       </c>
       <c r="E24" t="n">
         <v>-30000</v>
@@ -1190,7 +1190,7 @@
         <v>-30000</v>
       </c>
       <c r="I24" t="n">
-        <v>-35600</v>
+        <v>-26700</v>
       </c>
     </row>
     <row r="25">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sean Bellato</t>
+          <t xml:space="preserve">Tanmay Shewale </t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>45700</v>
+        <v>54400</v>
       </c>
       <c r="D25" t="n">
         <v>-30000</v>
@@ -1221,7 +1221,7 @@
         <v>-30000</v>
       </c>
       <c r="I25" t="n">
-        <v>-44300</v>
+        <v>-35600</v>
       </c>
     </row>
     <row r="26">
@@ -1230,17 +1230,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hong Sheng Quah</t>
+          <t>Sean Bellato</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-30000</v>
+        <v>45700</v>
       </c>
       <c r="D26" t="n">
         <v>-30000</v>
       </c>
       <c r="E26" t="n">
-        <v>40900</v>
+        <v>-30000</v>
       </c>
       <c r="F26" t="n">
         <v>-30000</v>
@@ -1252,7 +1252,7 @@
         <v>-30000</v>
       </c>
       <c r="I26" t="n">
-        <v>-49100</v>
+        <v>-44300</v>
       </c>
     </row>
     <row r="27">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Eugene Yap</t>
+          <t>Hong Sheng Quah</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>-30000</v>
       </c>
       <c r="D27" t="n">
-        <v>38400</v>
+        <v>-30000</v>
       </c>
       <c r="E27" t="n">
-        <v>-30000</v>
+        <v>40900</v>
       </c>
       <c r="F27" t="n">
         <v>-30000</v>
@@ -1283,7 +1283,7 @@
         <v>-30000</v>
       </c>
       <c r="I27" t="n">
-        <v>-51600</v>
+        <v>-49100</v>
       </c>
     </row>
     <row r="28">
@@ -1292,14 +1292,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hong Sheng Quah</t>
+          <t>Eugene Yap</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33900</v>
+        <v>-30000</v>
       </c>
       <c r="D28" t="n">
-        <v>-30000</v>
+        <v>38400</v>
       </c>
       <c r="E28" t="n">
         <v>-30000</v>
@@ -1314,7 +1314,7 @@
         <v>-30000</v>
       </c>
       <c r="I28" t="n">
-        <v>-56100</v>
+        <v>-51600</v>
       </c>
     </row>
     <row r="29">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Zetong Zhang</t>
+          <t>Hong Sheng Quah</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22100</v>
+        <v>33900</v>
       </c>
       <c r="D29" t="n">
         <v>-30000</v>
@@ -1345,7 +1345,7 @@
         <v>-30000</v>
       </c>
       <c r="I29" t="n">
-        <v>-67900</v>
+        <v>-56100</v>
       </c>
     </row>
     <row r="30">
@@ -1354,11 +1354,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ray Chng</t>
+          <t>Zetong Zhang</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>18400</v>
+        <v>22100</v>
       </c>
       <c r="D30" t="n">
         <v>-30000</v>
@@ -1376,7 +1376,7 @@
         <v>-30000</v>
       </c>
       <c r="I30" t="n">
-        <v>-71600</v>
+        <v>-67900</v>
       </c>
     </row>
     <row r="31">
@@ -1385,11 +1385,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cheng Sheng La </t>
+          <t>Ray Chng</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10100</v>
+        <v>18400</v>
       </c>
       <c r="D31" t="n">
         <v>-30000</v>
@@ -1407,7 +1407,7 @@
         <v>-30000</v>
       </c>
       <c r="I31" t="n">
-        <v>-79900</v>
+        <v>-71600</v>
       </c>
     </row>
     <row r="32">
@@ -1416,11 +1416,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Justin Qiang</t>
+          <t xml:space="preserve">Cheng Sheng La </t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8300</v>
+        <v>10100</v>
       </c>
       <c r="D32" t="n">
         <v>-30000</v>
@@ -1438,7 +1438,7 @@
         <v>-30000</v>
       </c>
       <c r="I32" t="n">
-        <v>-81700</v>
+        <v>-79900</v>
       </c>
     </row>
     <row r="33">

--- a/public/res/leaderboards/Final/Beginner.xlsx
+++ b/public/res/leaderboards/Final/Beginner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>William Cheung</t>
+          <t>Akshat Jain</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -620,19 +620,19 @@
         <v>-30000</v>
       </c>
       <c r="E6" t="n">
-        <v>39300</v>
+        <v>-30000</v>
       </c>
       <c r="F6" t="n">
-        <v>150000</v>
+        <v>71000</v>
       </c>
       <c r="G6" t="n">
         <v>-30000</v>
       </c>
       <c r="H6" t="n">
-        <v>-30000</v>
+        <v>193000</v>
       </c>
       <c r="I6" t="n">
-        <v>129300</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Techin</t>
+          <t>William Cheung</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -651,19 +651,19 @@
         <v>-30000</v>
       </c>
       <c r="E7" t="n">
-        <v>-30000</v>
+        <v>39300</v>
       </c>
       <c r="F7" t="n">
-        <v>-30000</v>
+        <v>150000</v>
       </c>
       <c r="G7" t="n">
-        <v>210000</v>
+        <v>-30000</v>
       </c>
       <c r="H7" t="n">
         <v>-30000</v>
       </c>
       <c r="I7" t="n">
-        <v>120000</v>
+        <v>129300</v>
       </c>
     </row>
     <row r="8">
@@ -672,29 +672,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zeren Shen</t>
+          <t>Techin</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>115200</v>
+        <v>-30000</v>
       </c>
       <c r="D8" t="n">
         <v>-30000</v>
       </c>
       <c r="E8" t="n">
-        <v>51400</v>
+        <v>-30000</v>
       </c>
       <c r="F8" t="n">
         <v>-30000</v>
       </c>
       <c r="G8" t="n">
-        <v>-30000</v>
+        <v>210000</v>
       </c>
       <c r="H8" t="n">
         <v>-30000</v>
       </c>
       <c r="I8" t="n">
-        <v>106600</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="9">
@@ -703,20 +703,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dillon Chen</t>
+          <t>Zeren Shen</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-30000</v>
+        <v>115200</v>
       </c>
       <c r="D9" t="n">
-        <v>73800</v>
+        <v>-30000</v>
       </c>
       <c r="E9" t="n">
-        <v>-30000</v>
+        <v>51400</v>
       </c>
       <c r="F9" t="n">
-        <v>86000</v>
+        <v>-30000</v>
       </c>
       <c r="G9" t="n">
         <v>-30000</v>
@@ -725,7 +725,7 @@
         <v>-30000</v>
       </c>
       <c r="I9" t="n">
-        <v>99800</v>
+        <v>106600</v>
       </c>
     </row>
     <row r="10">
@@ -734,29 +734,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Long Ha</t>
+          <t>Dillon Chen</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2500</v>
+        <v>-30000</v>
       </c>
       <c r="D10" t="n">
-        <v>84700</v>
+        <v>73800</v>
       </c>
       <c r="E10" t="n">
         <v>-30000</v>
       </c>
       <c r="F10" t="n">
-        <v>-30000</v>
+        <v>92700</v>
       </c>
       <c r="G10" t="n">
         <v>-30000</v>
       </c>
       <c r="H10" t="n">
-        <v>39800</v>
+        <v>-30000</v>
       </c>
       <c r="I10" t="n">
-        <v>97000</v>
+        <v>106500</v>
       </c>
     </row>
     <row r="11">
@@ -765,14 +765,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Jeremy Annal</t>
+          <t>Long Ha</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-30000</v>
+        <v>2500</v>
       </c>
       <c r="D11" t="n">
-        <v>-30000</v>
+        <v>84700</v>
       </c>
       <c r="E11" t="n">
         <v>-30000</v>
@@ -781,13 +781,13 @@
         <v>-30000</v>
       </c>
       <c r="G11" t="n">
-        <v>172300</v>
+        <v>-30000</v>
       </c>
       <c r="H11" t="n">
-        <v>-30000</v>
+        <v>39800</v>
       </c>
       <c r="I11" t="n">
-        <v>82300</v>
+        <v>97000</v>
       </c>
     </row>
     <row r="12">
@@ -796,29 +796,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Xuanyu Chen</t>
+          <t>Jeremy Annal</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>-30000</v>
       </c>
       <c r="D12" t="n">
-        <v>28300</v>
+        <v>-30000</v>
       </c>
       <c r="E12" t="n">
-        <v>54000</v>
+        <v>-30000</v>
       </c>
       <c r="F12" t="n">
-        <v>5000</v>
+        <v>-30000</v>
       </c>
       <c r="G12" t="n">
-        <v>-12500</v>
+        <v>172300</v>
       </c>
       <c r="H12" t="n">
         <v>-30000</v>
       </c>
       <c r="I12" t="n">
-        <v>74800</v>
+        <v>82300</v>
       </c>
     </row>
     <row r="13">
@@ -827,29 +827,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hao Duong</t>
+          <t>Xuanyu Chen</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18900</v>
+        <v>-30000</v>
       </c>
       <c r="D13" t="n">
-        <v>-30000</v>
+        <v>28300</v>
       </c>
       <c r="E13" t="n">
-        <v>-12000</v>
+        <v>54000</v>
       </c>
       <c r="F13" t="n">
-        <v>-30000</v>
+        <v>5000</v>
       </c>
       <c r="G13" t="n">
-        <v>86200</v>
+        <v>-12500</v>
       </c>
       <c r="H13" t="n">
         <v>-30000</v>
       </c>
       <c r="I13" t="n">
-        <v>63100</v>
+        <v>74800</v>
       </c>
     </row>
     <row r="14">
@@ -858,29 +858,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kai Ze Lim</t>
+          <t>Hao Duong</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42900</v>
+        <v>18900</v>
       </c>
       <c r="D14" t="n">
-        <v>57400</v>
+        <v>-30000</v>
       </c>
       <c r="E14" t="n">
-        <v>-30000</v>
+        <v>-12000</v>
       </c>
       <c r="F14" t="n">
         <v>-30000</v>
       </c>
       <c r="G14" t="n">
-        <v>-30000</v>
+        <v>86200</v>
       </c>
       <c r="H14" t="n">
         <v>-30000</v>
       </c>
       <c r="I14" t="n">
-        <v>40300</v>
+        <v>63100</v>
       </c>
     </row>
     <row r="15">
@@ -889,20 +889,20 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Yong Jun Loo</t>
+          <t>Kai Ze Lim</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>67400</v>
+        <v>42900</v>
       </c>
       <c r="D15" t="n">
-        <v>-30000</v>
+        <v>57400</v>
       </c>
       <c r="E15" t="n">
         <v>-30000</v>
       </c>
       <c r="F15" t="n">
-        <v>30100</v>
+        <v>-30000</v>
       </c>
       <c r="G15" t="n">
         <v>-30000</v>
@@ -911,7 +911,7 @@
         <v>-30000</v>
       </c>
       <c r="I15" t="n">
-        <v>37500</v>
+        <v>40300</v>
       </c>
     </row>
     <row r="16">
@@ -920,11 +920,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Edward Howells</t>
+          <t>Yong Jun Loo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-30000</v>
+        <v>67400</v>
       </c>
       <c r="D16" t="n">
         <v>-30000</v>
@@ -933,16 +933,16 @@
         <v>-30000</v>
       </c>
       <c r="F16" t="n">
-        <v>-30000</v>
+        <v>30100</v>
       </c>
       <c r="G16" t="n">
-        <v>110800</v>
+        <v>-30000</v>
       </c>
       <c r="H16" t="n">
         <v>-30000</v>
       </c>
       <c r="I16" t="n">
-        <v>20800</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="17">
@@ -951,11 +951,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Justin Qiang</t>
+          <t>Edward Howells</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8300</v>
+        <v>-30000</v>
       </c>
       <c r="D17" t="n">
         <v>-30000</v>
@@ -967,13 +967,13 @@
         <v>-30000</v>
       </c>
       <c r="G17" t="n">
-        <v>-30000</v>
+        <v>110800</v>
       </c>
       <c r="H17" t="n">
-        <v>62000</v>
+        <v>-30000</v>
       </c>
       <c r="I17" t="n">
-        <v>10300</v>
+        <v>20800</v>
       </c>
     </row>
     <row r="18">
@@ -982,29 +982,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kevin Yu</t>
+          <t>Justin Qiang</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-30000</v>
+        <v>8300</v>
       </c>
       <c r="D18" t="n">
-        <v>30900</v>
+        <v>-30000</v>
       </c>
       <c r="E18" t="n">
         <v>-30000</v>
       </c>
       <c r="F18" t="n">
-        <v>38000</v>
+        <v>-30000</v>
       </c>
       <c r="G18" t="n">
         <v>-30000</v>
       </c>
       <c r="H18" t="n">
-        <v>-30000</v>
+        <v>62000</v>
       </c>
       <c r="I18" t="n">
-        <v>8900</v>
+        <v>10300</v>
       </c>
     </row>
     <row r="19">
@@ -1013,20 +1013,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashwin Seshadari </t>
+          <t>Kevin Yu</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-20900</v>
+        <v>-30000</v>
       </c>
       <c r="D19" t="n">
-        <v>-30000</v>
+        <v>30900</v>
       </c>
       <c r="E19" t="n">
-        <v>2600</v>
+        <v>-30000</v>
       </c>
       <c r="F19" t="n">
-        <v>56400</v>
+        <v>38000</v>
       </c>
       <c r="G19" t="n">
         <v>-30000</v>
@@ -1035,7 +1035,7 @@
         <v>-30000</v>
       </c>
       <c r="I19" t="n">
-        <v>8100</v>
+        <v>8900</v>
       </c>
     </row>
     <row r="20">
@@ -1044,20 +1044,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dillon Chen Yi Ken</t>
+          <t xml:space="preserve">Ashwin Seshadari </t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-30000</v>
+        <v>-20900</v>
       </c>
       <c r="D20" t="n">
         <v>-30000</v>
       </c>
       <c r="E20" t="n">
-        <v>-30000</v>
+        <v>2600</v>
       </c>
       <c r="F20" t="n">
-        <v>92700</v>
+        <v>56400</v>
       </c>
       <c r="G20" t="n">
         <v>-30000</v>
@@ -1066,7 +1066,7 @@
         <v>-30000</v>
       </c>
       <c r="I20" t="n">
-        <v>2700</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="21">
@@ -1137,20 +1137,20 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Akshat Jain</t>
+          <t>Yucheng Chien</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>-30000</v>
       </c>
       <c r="D23" t="n">
-        <v>-30000</v>
+        <v>63300</v>
       </c>
       <c r="E23" t="n">
         <v>-30000</v>
       </c>
       <c r="F23" t="n">
-        <v>71000</v>
+        <v>-30000</v>
       </c>
       <c r="G23" t="n">
         <v>-30000</v>
@@ -1159,7 +1159,7 @@
         <v>-30000</v>
       </c>
       <c r="I23" t="n">
-        <v>-19000</v>
+        <v>-26700</v>
       </c>
     </row>
     <row r="24">
@@ -1168,14 +1168,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Yucheng Chien</t>
+          <t xml:space="preserve">Tanmay Shewale </t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-30000</v>
+        <v>54400</v>
       </c>
       <c r="D24" t="n">
-        <v>63300</v>
+        <v>-30000</v>
       </c>
       <c r="E24" t="n">
         <v>-30000</v>
@@ -1190,7 +1190,7 @@
         <v>-30000</v>
       </c>
       <c r="I24" t="n">
-        <v>-26700</v>
+        <v>-35600</v>
       </c>
     </row>
     <row r="25">
@@ -1199,11 +1199,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tanmay Shewale </t>
+          <t>Sean Bellato</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>54400</v>
+        <v>45700</v>
       </c>
       <c r="D25" t="n">
         <v>-30000</v>
@@ -1221,7 +1221,7 @@
         <v>-30000</v>
       </c>
       <c r="I25" t="n">
-        <v>-35600</v>
+        <v>-44300</v>
       </c>
     </row>
     <row r="26">
@@ -1230,17 +1230,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sean Bellato</t>
+          <t>Hong Sheng Quah</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>45700</v>
+        <v>-30000</v>
       </c>
       <c r="D26" t="n">
         <v>-30000</v>
       </c>
       <c r="E26" t="n">
-        <v>-30000</v>
+        <v>40900</v>
       </c>
       <c r="F26" t="n">
         <v>-30000</v>
@@ -1252,7 +1252,7 @@
         <v>-30000</v>
       </c>
       <c r="I26" t="n">
-        <v>-44300</v>
+        <v>-49100</v>
       </c>
     </row>
     <row r="27">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hong Sheng Quah</t>
+          <t>Eugene Yap</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>-30000</v>
       </c>
       <c r="D27" t="n">
-        <v>-30000</v>
+        <v>38400</v>
       </c>
       <c r="E27" t="n">
-        <v>40900</v>
+        <v>-30000</v>
       </c>
       <c r="F27" t="n">
         <v>-30000</v>
@@ -1283,7 +1283,7 @@
         <v>-30000</v>
       </c>
       <c r="I27" t="n">
-        <v>-49100</v>
+        <v>-51600</v>
       </c>
     </row>
     <row r="28">
@@ -1292,14 +1292,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Eugene Yap</t>
+          <t>Hong Sheng Quah</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-30000</v>
+        <v>33900</v>
       </c>
       <c r="D28" t="n">
-        <v>38400</v>
+        <v>-30000</v>
       </c>
       <c r="E28" t="n">
         <v>-30000</v>
@@ -1314,7 +1314,7 @@
         <v>-30000</v>
       </c>
       <c r="I28" t="n">
-        <v>-51600</v>
+        <v>-56100</v>
       </c>
     </row>
     <row r="29">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hong Sheng Quah</t>
+          <t>Zetong Zhang</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>33900</v>
+        <v>22100</v>
       </c>
       <c r="D29" t="n">
         <v>-30000</v>
@@ -1345,7 +1345,7 @@
         <v>-30000</v>
       </c>
       <c r="I29" t="n">
-        <v>-56100</v>
+        <v>-67900</v>
       </c>
     </row>
     <row r="30">
@@ -1354,11 +1354,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zetong Zhang</t>
+          <t>Ray Chng</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>22100</v>
+        <v>18400</v>
       </c>
       <c r="D30" t="n">
         <v>-30000</v>
@@ -1376,7 +1376,7 @@
         <v>-30000</v>
       </c>
       <c r="I30" t="n">
-        <v>-67900</v>
+        <v>-71600</v>
       </c>
     </row>
     <row r="31">
@@ -1385,11 +1385,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ray Chng</t>
+          <t xml:space="preserve">Cheng Sheng La </t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18400</v>
+        <v>10100</v>
       </c>
       <c r="D31" t="n">
         <v>-30000</v>
@@ -1407,7 +1407,7 @@
         <v>-30000</v>
       </c>
       <c r="I31" t="n">
-        <v>-71600</v>
+        <v>-79900</v>
       </c>
     </row>
     <row r="32">
@@ -1416,11 +1416,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cheng Sheng La </t>
+          <t>Ha Hwei Keat</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>10100</v>
+        <v>8200</v>
       </c>
       <c r="D32" t="n">
         <v>-30000</v>
@@ -1438,7 +1438,7 @@
         <v>-30000</v>
       </c>
       <c r="I32" t="n">
-        <v>-79900</v>
+        <v>-81800</v>
       </c>
     </row>
     <row r="33">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ha Hwei Keat</t>
+          <t>Vik Ayyasamy Sivakumar</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="D33" t="n">
         <v>-30000</v>
@@ -1469,7 +1469,7 @@
         <v>-30000</v>
       </c>
       <c r="I33" t="n">
-        <v>-81800</v>
+        <v>-82300</v>
       </c>
     </row>
     <row r="34">
@@ -1478,17 +1478,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vik Ayyasamy Sivakumar</t>
+          <t>Alice Lu</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7700</v>
+        <v>-30000</v>
       </c>
       <c r="D34" t="n">
         <v>-30000</v>
       </c>
       <c r="E34" t="n">
-        <v>-30000</v>
+        <v>7200</v>
       </c>
       <c r="F34" t="n">
         <v>-30000</v>
@@ -1500,7 +1500,7 @@
         <v>-30000</v>
       </c>
       <c r="I34" t="n">
-        <v>-82300</v>
+        <v>-82800</v>
       </c>
     </row>
     <row r="35">
@@ -1509,17 +1509,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Alice Lu</t>
+          <t xml:space="preserve">Owen Vandegraaff </t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-30000</v>
+        <v>5600</v>
       </c>
       <c r="D35" t="n">
         <v>-30000</v>
       </c>
       <c r="E35" t="n">
-        <v>7200</v>
+        <v>-30000</v>
       </c>
       <c r="F35" t="n">
         <v>-30000</v>
@@ -1531,7 +1531,7 @@
         <v>-30000</v>
       </c>
       <c r="I35" t="n">
-        <v>-82800</v>
+        <v>-84400</v>
       </c>
     </row>
     <row r="36">
@@ -1540,11 +1540,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Owen Vandegraaff </t>
+          <t>Will Ho</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="D36" t="n">
         <v>-30000</v>
@@ -1562,7 +1562,7 @@
         <v>-30000</v>
       </c>
       <c r="I36" t="n">
-        <v>-84400</v>
+        <v>-85000</v>
       </c>
     </row>
     <row r="37">
@@ -1571,11 +1571,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Will Ho</t>
+          <t>Kodai Shichida</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5000</v>
+        <v>2700</v>
       </c>
       <c r="D37" t="n">
         <v>-30000</v>
@@ -1593,7 +1593,7 @@
         <v>-30000</v>
       </c>
       <c r="I37" t="n">
-        <v>-85000</v>
+        <v>-87300</v>
       </c>
     </row>
     <row r="38">
@@ -1602,17 +1602,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Kodai Shichida</t>
+          <t>Druvinka</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2700</v>
+        <v>-30000</v>
       </c>
       <c r="D38" t="n">
         <v>-30000</v>
       </c>
       <c r="E38" t="n">
-        <v>-30000</v>
+        <v>-1200</v>
       </c>
       <c r="F38" t="n">
         <v>-30000</v>
@@ -1624,7 +1624,7 @@
         <v>-30000</v>
       </c>
       <c r="I38" t="n">
-        <v>-87300</v>
+        <v>-91200</v>
       </c>
     </row>
     <row r="39">
@@ -1633,17 +1633,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Druvinka</t>
+          <t xml:space="preserve">Sean Tan Yuheng </t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>-30000</v>
       </c>
       <c r="D39" t="n">
-        <v>-30000</v>
+        <v>-3100</v>
       </c>
       <c r="E39" t="n">
-        <v>-1200</v>
+        <v>-30000</v>
       </c>
       <c r="F39" t="n">
         <v>-30000</v>
@@ -1655,7 +1655,7 @@
         <v>-30000</v>
       </c>
       <c r="I39" t="n">
-        <v>-91200</v>
+        <v>-93100</v>
       </c>
     </row>
     <row r="40">
@@ -1664,14 +1664,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sean Tan Yuheng </t>
+          <t>Josh Burke</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-30000</v>
+        <v>-3600</v>
       </c>
       <c r="D40" t="n">
-        <v>-3100</v>
+        <v>-30000</v>
       </c>
       <c r="E40" t="n">
         <v>-30000</v>
@@ -1686,7 +1686,7 @@
         <v>-30000</v>
       </c>
       <c r="I40" t="n">
-        <v>-93100</v>
+        <v>-93600</v>
       </c>
     </row>
     <row r="41">
@@ -1695,11 +1695,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Josh Burke</t>
+          <t>Edwin Zou</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-3600</v>
+        <v>-4700</v>
       </c>
       <c r="D41" t="n">
         <v>-30000</v>
@@ -1717,7 +1717,7 @@
         <v>-30000</v>
       </c>
       <c r="I41" t="n">
-        <v>-93600</v>
+        <v>-94700</v>
       </c>
     </row>
     <row r="42">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Edwin Zou</t>
+          <t>Monil Bhatt</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-4700</v>
+        <v>-6400</v>
       </c>
       <c r="D42" t="n">
         <v>-30000</v>
@@ -1748,7 +1748,7 @@
         <v>-30000</v>
       </c>
       <c r="I42" t="n">
-        <v>-94700</v>
+        <v>-96400</v>
       </c>
     </row>
     <row r="43">
@@ -1757,14 +1757,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Monil Bhatt</t>
+          <t>Justin Alexander T. Sy</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-6400</v>
+        <v>-30000</v>
       </c>
       <c r="D43" t="n">
-        <v>-30000</v>
+        <v>-18900</v>
       </c>
       <c r="E43" t="n">
         <v>-30000</v>
@@ -1779,7 +1779,7 @@
         <v>-30000</v>
       </c>
       <c r="I43" t="n">
-        <v>-96400</v>
+        <v>-108900</v>
       </c>
     </row>
     <row r="44">
@@ -1788,14 +1788,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Justin Alexander T. Sy</t>
+          <t>Kar Way Tan</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-30000</v>
+        <v>-21600</v>
       </c>
       <c r="D44" t="n">
-        <v>-18900</v>
+        <v>-30000</v>
       </c>
       <c r="E44" t="n">
         <v>-30000</v>
@@ -1810,7 +1810,7 @@
         <v>-30000</v>
       </c>
       <c r="I44" t="n">
-        <v>-108900</v>
+        <v>-111600</v>
       </c>
     </row>
     <row r="45">
@@ -1819,11 +1819,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kar Way Tan</t>
+          <t>Xinkai Zhou</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-21600</v>
+        <v>-30000</v>
       </c>
       <c r="D45" t="n">
         <v>-30000</v>
@@ -1841,7 +1841,7 @@
         <v>-30000</v>
       </c>
       <c r="I45" t="n">
-        <v>-111600</v>
+        <v>-120000</v>
       </c>
     </row>
     <row r="46">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lucy Liu </t>
+          <t>Oscar Ho</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Oscar Ho</t>
+          <t xml:space="preserve">Jordan Koh </t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Yeo Zheng Xian</t>
+          <t xml:space="preserve">Hieu Chau </t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jordan Koh </t>
+          <t>Yeo Zheng Xian</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hieu Chau </t>
+          <t>Vinay Panicker</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vinay Panicker</t>
+          <t>Keji Yan</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Keji Yan</t>
+          <t>Sinha Dayarathne</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sinha Dayarathne</t>
+          <t xml:space="preserve">Lucy Liu </t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Deniz Uragun</t>
+          <t>James Patterson</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>James Patterson</t>
+          <t xml:space="preserve">Ashwin Seshadari </t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ashwin Seshadari </t>
+          <t>Qing Ye</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Qing Ye</t>
+          <t>Nivethan Iyer</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nivethan Iyer</t>
+          <t>Goutham Peddireddy</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ryan Cheng Hong Khoo</t>
+          <t>Henry Zhang</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Goutham Peddireddy</t>
+          <t>Ryan Cheng Hong Khoo</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Henry Zhang</t>
+          <t>Coco Yan</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Xinkai Zhou</t>
+          <t>Deniz Uragun</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Coco Yan</t>
+          <t>Emily Kha</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2399,37 +2399,6 @@
         <v>-30000</v>
       </c>
       <c r="I63" t="n">
-        <v>-120000</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Emily Kha</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="F64" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="H64" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="I64" t="n">
         <v>-120000</v>
       </c>
     </row>
